--- a/data/trans_orig/P14B23_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2015-Estudios-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>93,63%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>80,11%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,89%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>88,04%</t>
+          <t>87,29%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>24,48%</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>48,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>39,67%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,49%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
